--- a/NEW HR/DONE/BAES, ELMER.xlsx
+++ b/NEW HR/DONE/BAES, ELMER.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -250,6 +250,21 @@
   </si>
   <si>
     <t>3/24,27/2023</t>
+  </si>
+  <si>
+    <t>5/5,8/2023</t>
+  </si>
+  <si>
+    <t>EDP</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>5/5,11,12/2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -3301,10 +3316,10 @@
   </sheetPr>
   <dimension ref="A2:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5775" topLeftCell="A89" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A71"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3374,7 +3389,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
+      <c r="F4" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3465,7 +3482,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>54.35</v>
+        <v>55.6</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3475,7 +3492,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.75</v>
+        <v>78</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4973,15 +4990,19 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45017</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4989,7 +5010,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45047</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -5915,10 +5938,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A14" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A11" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5983,14 +6006,16 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="50" t="s">
+        <v>48</v>
+      </c>
       <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
+        <v>EDP</v>
       </c>
       <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
@@ -6092,7 +6117,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>60.582999999999998</v>
+        <v>54.582999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6288,7 +6313,9 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
@@ -6304,8 +6331,12 @@
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
       <c r="E20" s="9"/>
@@ -6314,14 +6345,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H20" s="39"/>
+      <c r="H20" s="39">
+        <v>2</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
@@ -6330,14 +6367,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="39">
+        <v>3</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
-      <c r="B22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
@@ -6346,10 +6389,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="39">
+        <v>1</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="49">
+        <v>45063</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>

--- a/NEW HR/DONE/BAES, ELMER.xlsx
+++ b/NEW HR/DONE/BAES, ELMER.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -649,15 +649,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -670,11 +661,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1371,7 +1371,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1414,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,7 +1478,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1538,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1604,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,7 +1667,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1765,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1824,7 +1824,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,7 +1889,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +1932,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2193,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2259,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2317,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2383,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2439,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2514,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2557,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2623,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2679,7 +2679,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2777,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2840,7 +2840,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3316,10 +3316,10 @@
   </sheetPr>
   <dimension ref="A2:K138"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A71"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3349,14 +3349,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3367,16 +3367,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <v>41519</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3389,16 +3389,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3424,18 +3424,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3482,7 +3482,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>55.6</v>
+        <v>56.85</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3492,7 +3492,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>78</v>
+        <v>79.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5014,13 +5014,15 @@
         <v>45047</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -5028,16 +5030,15 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45078</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G85" s="13"/>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
@@ -5893,17 +5894,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5938,10 +5939,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A11" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5972,14 +5973,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5993,14 +5994,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6013,17 +6014,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>EDP</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6049,18 +6050,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6117,7 +6118,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>54.582999999999998</v>
+        <v>51.582999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6400,7 +6401,9 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
@@ -6409,14 +6412,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="39"/>
+      <c r="H23" s="39">
+        <v>1</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="49">
+        <v>45076</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
@@ -6425,7 +6436,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39">
+        <v>2</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>

--- a/NEW HR/DONE/BAES, ELMER.xlsx
+++ b/NEW HR/DONE/BAES, ELMER.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>6/6-7/2023</t>
+  </si>
+  <si>
+    <t>6/15,16/2023</t>
   </si>
 </sst>
 </file>
@@ -649,6 +655,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -661,20 +676,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1371,7 +1377,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1420,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,7 +1484,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1544,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1610,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,7 +1673,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1771,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1824,7 +1830,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,7 +1895,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +1938,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2013,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2199,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2265,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2323,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2389,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2445,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2520,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2563,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2629,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2679,7 +2685,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2783,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2840,7 +2846,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3317,9 +3323,9 @@
   <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A71" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A80" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3349,14 +3355,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3367,16 +3373,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="57">
         <v>41519</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3389,16 +3395,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3424,18 +3430,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3492,7 +3498,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>79.25</v>
+        <v>77.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5033,16 +5039,22 @@
       <c r="A85" s="40">
         <v>45078</v>
       </c>
-      <c r="B85" s="20"/>
+      <c r="B85" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="39"/>
+      <c r="H85" s="39">
+        <v>2</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
@@ -5894,17 +5906,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5942,7 +5954,7 @@
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A11" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5973,14 +5985,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5994,14 +6006,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6014,17 +6026,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>EDP</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6050,18 +6062,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6118,7 +6130,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>51.582999999999998</v>
+        <v>49.582999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6445,7 +6457,9 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
@@ -6454,10 +6468,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="39">
+        <v>2</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>

--- a/NEW HR/DONE/BAES, ELMER.xlsx
+++ b/NEW HR/DONE/BAES, ELMER.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56D829F-899E-41C6-AB15-491BBB3A9FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -276,7 +277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -507,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -655,15 +656,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -676,17 +668,29 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1377,7 +1381,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1424,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1484,7 +1488,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1544,7 +1548,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1614,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1677,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1775,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,7 +1834,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1899,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1942,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,7 +2017,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2203,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2269,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2327,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2393,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2449,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2524,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +2567,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2633,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2689,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2783,7 +2787,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2846,7 +2850,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2895,7 +2899,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2912,25 +2916,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2942,25 +2946,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2972,13 +2976,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2987,14 +2991,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3298,7 +3302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3308,7 +3312,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3316,34 +3320,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A80" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A23" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3355,16 +3359,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3373,18 +3377,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <v>41519</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3395,18 +3399,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3414,7 +3418,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3427,24 +3431,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3479,7 +3483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3498,12 +3502,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>77.25</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3525,7 +3529,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3545,7 +3549,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3565,7 +3569,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3585,7 +3589,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3605,7 +3609,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3625,7 +3629,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3645,7 +3649,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3665,7 +3669,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3685,7 +3689,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3705,7 +3709,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3725,7 +3729,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3745,7 +3749,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3769,7 +3773,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3787,7 +3791,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3807,7 +3811,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3827,7 +3831,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3847,7 +3851,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3871,7 +3875,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>57</v>
@@ -3893,7 +3897,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>59</v>
@@ -3913,7 +3917,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43586</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>61</v>
@@ -3959,7 +3963,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43617</v>
       </c>
@@ -3979,7 +3983,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -3999,7 +4003,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -4019,7 +4023,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -4039,7 +4043,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43739</v>
       </c>
@@ -4059,7 +4063,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43770</v>
       </c>
@@ -4079,7 +4083,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43800</v>
       </c>
@@ -4099,7 +4103,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>44</v>
       </c>
@@ -4117,7 +4121,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -4137,7 +4141,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -4157,7 +4161,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -4177,7 +4181,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -4197,7 +4201,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -4217,7 +4221,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -4237,7 +4241,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -4257,7 +4261,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44044</v>
       </c>
@@ -4277,7 +4281,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44075</v>
       </c>
@@ -4297,7 +4301,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44105</v>
       </c>
@@ -4317,7 +4321,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44136</v>
       </c>
@@ -4337,7 +4341,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44166</v>
       </c>
@@ -4361,7 +4365,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
         <v>45</v>
       </c>
@@ -4379,7 +4383,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44197</v>
       </c>
@@ -4399,7 +4403,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44228</v>
       </c>
@@ -4419,7 +4423,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44256</v>
       </c>
@@ -4439,7 +4443,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44287</v>
       </c>
@@ -4459,7 +4463,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44317</v>
       </c>
@@ -4479,7 +4483,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44348</v>
       </c>
@@ -4499,7 +4503,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44378</v>
       </c>
@@ -4519,7 +4523,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44409</v>
       </c>
@@ -4539,7 +4543,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44440</v>
       </c>
@@ -4559,7 +4563,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44470</v>
       </c>
@@ -4579,7 +4583,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44501</v>
       </c>
@@ -4603,7 +4607,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44531</v>
       </c>
@@ -4627,7 +4631,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>46</v>
       </c>
@@ -4645,7 +4649,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44562</v>
       </c>
@@ -4665,7 +4669,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44593</v>
       </c>
@@ -4685,7 +4689,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44621</v>
       </c>
@@ -4705,7 +4709,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44652</v>
       </c>
@@ -4725,7 +4729,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44682</v>
       </c>
@@ -4745,7 +4749,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44713</v>
       </c>
@@ -4765,7 +4769,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44743</v>
       </c>
@@ -4785,7 +4789,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44774</v>
       </c>
@@ -4805,7 +4809,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44805</v>
       </c>
@@ -4825,7 +4829,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44835</v>
       </c>
@@ -4845,7 +4849,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44866</v>
       </c>
@@ -4865,7 +4869,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44896</v>
       </c>
@@ -4889,7 +4893,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>68</v>
@@ -4911,7 +4915,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
         <v>47</v>
       </c>
@@ -4929,7 +4933,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44927</v>
       </c>
@@ -4949,7 +4953,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44958</v>
       </c>
@@ -4969,13 +4973,11 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44986</v>
       </c>
-      <c r="B82" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="B82" s="20"/>
       <c r="C82" s="13">
         <v>1.25</v>
       </c>
@@ -4986,16 +4988,12 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H82" s="39">
-        <v>2</v>
-      </c>
+      <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="20"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45017</v>
       </c>
@@ -5015,7 +5013,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45047</v>
       </c>
@@ -5035,28 +5033,22 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45078</v>
       </c>
-      <c r="B85" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="39">
-        <v>2</v>
-      </c>
+      <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="20"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5072,7 +5064,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5088,7 +5080,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5104,7 +5096,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5120,7 +5112,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5136,7 +5128,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5152,7 +5144,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5168,7 +5160,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5184,7 +5176,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5200,7 +5192,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5216,7 +5208,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5232,7 +5224,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5248,7 +5240,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5264,7 +5256,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5280,7 +5272,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5296,7 +5288,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5312,7 +5304,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5328,7 +5320,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5344,7 +5336,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5360,7 +5352,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5376,7 +5368,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5392,7 +5384,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5408,7 +5400,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5424,7 +5416,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5440,7 +5432,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5456,7 +5448,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5472,7 +5464,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5488,7 +5480,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5504,7 +5496,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5520,7 +5512,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5536,7 +5528,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5552,7 +5544,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5568,7 +5560,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5584,7 +5576,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5600,7 +5592,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5616,7 +5608,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5632,7 +5624,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5648,7 +5640,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5664,7 +5656,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5680,7 +5672,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5696,7 +5688,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5712,7 +5704,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5728,7 +5720,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5744,7 +5736,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5760,7 +5752,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5776,7 +5768,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5792,7 +5784,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5808,7 +5800,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5824,7 +5816,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5840,7 +5832,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5856,7 +5848,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5872,7 +5864,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5888,7 +5880,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41"/>
       <c r="B138" s="15"/>
       <c r="C138" s="42"/>
@@ -5906,23 +5898,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5945,34 +5937,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A11" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A26" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5985,16 +5977,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6006,16 +5998,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6026,19 +6018,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>EDP</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6046,7 +6038,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6059,24 +6051,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6111,7 +6103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6130,12 +6122,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>49.582999999999998</v>
+        <v>44.582999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -6157,7 +6149,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43466</v>
       </c>
@@ -6181,7 +6173,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>52</v>
@@ -6201,7 +6193,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43497</v>
       </c>
@@ -6225,7 +6217,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
@@ -6245,7 +6237,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43525</v>
       </c>
@@ -6269,7 +6261,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>55</v>
@@ -6289,7 +6281,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>46</v>
       </c>
@@ -6307,7 +6299,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>44924</v>
       </c>
@@ -6325,7 +6317,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>47</v>
       </c>
@@ -6343,9 +6335,9 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
-        <v>45047</v>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="62">
+        <v>44986</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>69</v>
@@ -6364,13 +6356,15 @@
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
       <c r="K20" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="40">
+        <v>45047</v>
+      </c>
       <c r="B21" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
@@ -6381,18 +6375,18 @@
         <v/>
       </c>
       <c r="H21" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
       <c r="K21" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
@@ -6403,15 +6397,15 @@
         <v/>
       </c>
       <c r="H22" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="49">
-        <v>45063</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>75</v>
@@ -6430,15 +6424,13 @@
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
       <c r="K23" s="49">
-        <v>45076</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
-        <v>45078</v>
-      </c>
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
@@ -6449,14 +6441,18 @@
         <v/>
       </c>
       <c r="H24" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="K24" s="49">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="40">
+        <v>45078</v>
+      </c>
       <c r="B25" s="20" t="s">
         <v>69</v>
       </c>
@@ -6473,13 +6469,13 @@
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
@@ -6488,14 +6484,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H26" s="39"/>
+      <c r="H26" s="39">
+        <v>2</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="20"/>
+      <c r="K26" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="40">
+        <v>45099</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
@@ -6504,14 +6508,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H27" s="39"/>
+      <c r="H27" s="39">
+        <v>1</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="49">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
@@ -6520,12 +6530,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="39">
+        <v>2</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6541,7 +6555,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6557,7 +6571,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6573,7 +6587,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6589,7 +6603,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6605,7 +6619,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6621,7 +6635,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6637,7 +6651,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6653,7 +6667,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6669,7 +6683,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6685,7 +6699,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6701,7 +6715,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6717,7 +6731,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6733,7 +6747,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6749,7 +6763,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6765,7 +6779,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6781,7 +6795,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6797,7 +6811,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6813,7 +6827,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6829,7 +6843,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6845,7 +6859,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6861,7 +6875,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6877,7 +6891,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6893,7 +6907,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6909,7 +6923,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6925,7 +6939,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6941,7 +6955,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6957,7 +6971,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6973,7 +6987,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6989,7 +7003,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7005,7 +7019,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7021,7 +7035,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7037,7 +7051,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7053,7 +7067,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7069,7 +7083,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7085,7 +7099,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7101,7 +7115,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7117,7 +7131,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7133,7 +7147,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7149,7 +7163,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7165,7 +7179,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7181,7 +7195,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7197,7 +7211,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7213,7 +7227,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7229,7 +7243,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7245,7 +7259,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7261,7 +7275,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7277,7 +7291,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7293,7 +7307,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7309,7 +7323,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7325,7 +7339,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7341,7 +7355,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7357,7 +7371,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7373,7 +7387,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7389,7 +7403,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7405,7 +7419,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7421,7 +7435,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7437,7 +7451,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7453,7 +7467,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7469,7 +7483,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7485,7 +7499,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7501,7 +7515,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7517,7 +7531,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7533,7 +7547,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7549,7 +7563,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7565,7 +7579,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7581,7 +7595,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7597,7 +7611,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7613,7 +7627,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7629,7 +7643,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7645,7 +7659,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7661,7 +7675,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7677,7 +7691,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7693,7 +7707,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7709,7 +7723,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7725,7 +7739,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7741,7 +7755,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7757,7 +7771,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7773,7 +7787,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7789,7 +7803,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7805,7 +7819,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7821,7 +7835,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7837,7 +7851,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7853,7 +7867,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7869,7 +7883,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7885,7 +7899,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7901,7 +7915,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7917,7 +7931,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7933,7 +7947,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7949,7 +7963,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7965,7 +7979,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7981,7 +7995,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7997,7 +8011,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8013,7 +8027,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8029,7 +8043,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8045,7 +8059,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8061,7 +8075,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8077,7 +8091,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8093,7 +8107,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8109,7 +8123,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8125,7 +8139,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8141,21 +8155,37 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8172,10 +8202,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8198,7 +8228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8206,21 +8236,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8233,7 +8263,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8262,7 +8292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>9.5809999999999995</v>
       </c>
@@ -8290,17 +8320,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8321,7 +8351,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8348,7 +8378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8374,7 +8404,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8400,7 +8430,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8426,7 +8456,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8452,7 +8482,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8478,7 +8508,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8504,7 +8534,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8530,7 +8560,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8550,7 +8580,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8570,7 +8600,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8590,7 +8620,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8611,7 +8641,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8632,7 +8662,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8653,7 +8683,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8674,7 +8704,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8695,7 +8725,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8716,7 +8746,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8737,7 +8767,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8758,7 +8788,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8779,7 +8809,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8800,7 +8830,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8821,7 +8851,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8842,7 +8872,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8863,7 +8893,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8884,7 +8914,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8905,7 +8935,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8926,7 +8956,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8947,7 +8977,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8968,7 +8998,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8989,7 +9019,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9010,7 +9040,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9019,7 +9049,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9028,7 +9058,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9037,7 +9067,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9046,7 +9076,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9055,7 +9085,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9064,7 +9094,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9073,7 +9103,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9082,7 +9112,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9091,7 +9121,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9100,7 +9130,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9109,7 +9139,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9118,7 +9148,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9127,7 +9157,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9136,7 +9166,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9145,7 +9175,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9154,7 +9184,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9163,7 +9193,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9172,7 +9202,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9181,7 +9211,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9190,7 +9220,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9199,7 +9229,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9208,7 +9238,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9217,7 +9247,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9226,7 +9256,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9235,7 +9265,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9244,7 +9274,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9253,7 +9283,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9262,7 +9292,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9271,7 +9301,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/BAES, ELMER.xlsx
+++ b/NEW HR/DONE/BAES, ELMER.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56D829F-899E-41C6-AB15-491BBB3A9FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="45" windowWidth="23010" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -273,11 +272,17 @@
   <si>
     <t>6/15,16/2023</t>
   </si>
+  <si>
+    <t>9/5-7/2023</t>
+  </si>
+  <si>
+    <t>9/18-20/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -653,8 +658,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -668,29 +685,17 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1381,7 +1386,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,7 +1429,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1488,7 +1493,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1553,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1619,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1682,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1780,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1839,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,7 +1904,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1947,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +2022,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2203,7 +2208,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2274,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2332,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2398,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2449,7 +2454,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2529,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2567,7 +2572,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2638,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +2694,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2792,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,7 +2855,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,7 +2904,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2916,25 +2921,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2946,25 +2951,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2976,13 +2981,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2991,14 +2996,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3302,7 +3307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3312,7 +3317,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3320,97 +3325,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A23" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A77" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="58">
         <v>41519</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3418,7 +3423,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3431,24 +3436,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3483,7 +3488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3492,7 +3497,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.85</v>
+        <v>61.85</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3502,12 +3507,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3529,7 +3534,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3549,7 +3554,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3569,7 +3574,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3589,7 +3594,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3609,7 +3614,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3629,7 +3634,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3649,7 +3654,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3669,7 +3674,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3689,7 +3694,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3709,7 +3714,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3729,7 +3734,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3749,7 +3754,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3773,7 +3778,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3791,7 +3796,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3811,7 +3816,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3831,7 +3836,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3851,7 +3856,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3875,7 +3880,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>57</v>
@@ -3897,7 +3902,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>59</v>
@@ -3917,7 +3922,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43586</v>
       </c>
@@ -3943,7 +3948,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>61</v>
@@ -3963,7 +3968,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43617</v>
       </c>
@@ -3983,7 +3988,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -4003,7 +4008,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -4023,7 +4028,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -4043,7 +4048,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43739</v>
       </c>
@@ -4063,7 +4068,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43770</v>
       </c>
@@ -4083,7 +4088,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43800</v>
       </c>
@@ -4103,7 +4108,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>44</v>
       </c>
@@ -4121,7 +4126,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -4141,7 +4146,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -4161,7 +4166,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -4181,7 +4186,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -4201,7 +4206,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -4221,7 +4226,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -4241,7 +4246,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -4261,7 +4266,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44044</v>
       </c>
@@ -4281,7 +4286,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44075</v>
       </c>
@@ -4301,7 +4306,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44105</v>
       </c>
@@ -4321,7 +4326,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44136</v>
       </c>
@@ -4341,7 +4346,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44166</v>
       </c>
@@ -4365,7 +4370,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>45</v>
       </c>
@@ -4383,7 +4388,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44197</v>
       </c>
@@ -4403,7 +4408,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44228</v>
       </c>
@@ -4423,7 +4428,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44256</v>
       </c>
@@ -4443,7 +4448,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44287</v>
       </c>
@@ -4463,7 +4468,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44317</v>
       </c>
@@ -4483,7 +4488,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44348</v>
       </c>
@@ -4503,7 +4508,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44378</v>
       </c>
@@ -4523,7 +4528,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44409</v>
       </c>
@@ -4543,7 +4548,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44440</v>
       </c>
@@ -4563,7 +4568,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44470</v>
       </c>
@@ -4583,7 +4588,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44501</v>
       </c>
@@ -4607,7 +4612,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44531</v>
       </c>
@@ -4631,7 +4636,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>46</v>
       </c>
@@ -4649,7 +4654,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44562</v>
       </c>
@@ -4669,7 +4674,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44593</v>
       </c>
@@ -4689,7 +4694,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44621</v>
       </c>
@@ -4709,7 +4714,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44652</v>
       </c>
@@ -4729,7 +4734,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44682</v>
       </c>
@@ -4749,7 +4754,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44713</v>
       </c>
@@ -4769,7 +4774,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44743</v>
       </c>
@@ -4789,7 +4794,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44774</v>
       </c>
@@ -4809,7 +4814,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44805</v>
       </c>
@@ -4829,7 +4834,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44835</v>
       </c>
@@ -4849,7 +4854,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44866</v>
       </c>
@@ -4869,7 +4874,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44896</v>
       </c>
@@ -4893,7 +4898,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>68</v>
@@ -4915,7 +4920,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>47</v>
       </c>
@@ -4933,7 +4938,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44927</v>
       </c>
@@ -4953,7 +4958,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44958</v>
       </c>
@@ -4973,7 +4978,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44986</v>
       </c>
@@ -4993,7 +4998,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45017</v>
       </c>
@@ -5013,7 +5018,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45047</v>
       </c>
@@ -5033,70 +5038,87 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45078</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13"/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="40">
+        <v>45108</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="40">
+        <v>45139</v>
+      </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="40">
+        <v>45170</v>
+      </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5112,7 +5134,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5128,7 +5150,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5144,7 +5166,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5160,7 +5182,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5176,7 +5198,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5192,7 +5214,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5208,7 +5230,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5224,7 +5246,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5240,7 +5262,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5256,7 +5278,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5272,7 +5294,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5288,7 +5310,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5304,7 +5326,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5320,7 +5342,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5336,7 +5358,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5352,7 +5374,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5368,7 +5390,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5384,7 +5406,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5400,7 +5422,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5416,7 +5438,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5432,7 +5454,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5448,7 +5470,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5464,7 +5486,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5480,7 +5502,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5496,7 +5518,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5512,7 +5534,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5528,7 +5550,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5544,7 +5566,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5560,7 +5582,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5576,7 +5598,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5592,7 +5614,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5608,7 +5630,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5624,7 +5646,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5640,7 +5662,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5656,7 +5678,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5672,7 +5694,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5688,7 +5710,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5704,7 +5726,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5720,7 +5742,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5736,7 +5758,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5752,7 +5774,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5768,7 +5790,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5784,7 +5806,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5800,7 +5822,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5816,7 +5838,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5832,7 +5854,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5848,7 +5870,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5864,7 +5886,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5880,7 +5902,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41"/>
       <c r="B138" s="15"/>
       <c r="C138" s="42"/>
@@ -5898,23 +5920,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5937,100 +5959,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A26" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A20" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="str">
+      <c r="B2" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>BAES, ELMER</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="str">
+      <c r="B3" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>EDP</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6038,7 +6060,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6051,24 +6073,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6103,7 +6125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6122,12 +6144,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>44.582999999999998</v>
+        <v>36.582999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -6149,7 +6171,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43466</v>
       </c>
@@ -6173,7 +6195,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>52</v>
@@ -6193,7 +6215,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43497</v>
       </c>
@@ -6217,7 +6239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
@@ -6237,7 +6259,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43525</v>
       </c>
@@ -6261,7 +6283,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>55</v>
@@ -6281,7 +6303,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>46</v>
       </c>
@@ -6299,7 +6321,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44924</v>
       </c>
@@ -6317,7 +6339,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>47</v>
       </c>
@@ -6335,8 +6357,8 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="62">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="50">
         <v>44986</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -6359,7 +6381,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>45047</v>
       </c>
@@ -6383,7 +6405,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>73</v>
@@ -6405,7 +6427,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>75</v>
@@ -6427,7 +6449,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>75</v>
@@ -6449,7 +6471,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>45078</v>
       </c>
@@ -6471,7 +6493,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>69</v>
@@ -6493,7 +6515,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>45099</v>
       </c>
@@ -6517,7 +6539,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>69</v>
@@ -6539,9 +6561,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="20"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
@@ -6550,14 +6576,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="39">
+        <v>1</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="20"/>
+      <c r="K29" s="49">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
@@ -6566,14 +6600,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="39">
+        <v>3</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
@@ -6582,14 +6622,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="39">
+        <v>3</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
-      <c r="B32" s="20"/>
+      <c r="B32" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
       <c r="E32" s="9"/>
@@ -6598,12 +6644,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H32" s="39"/>
+      <c r="H32" s="39">
+        <v>1</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K32" s="49">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6619,7 +6669,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6635,7 +6685,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6651,7 +6701,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6667,7 +6717,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6683,7 +6733,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6699,7 +6749,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6715,7 +6765,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6731,7 +6781,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6747,7 +6797,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6763,7 +6813,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6779,7 +6829,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6795,7 +6845,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6811,7 +6861,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6827,7 +6877,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6843,7 +6893,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6859,7 +6909,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6875,7 +6925,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6891,7 +6941,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6907,7 +6957,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6923,7 +6973,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6939,7 +6989,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6955,7 +7005,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6971,7 +7021,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6987,7 +7037,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7003,7 +7053,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7019,7 +7069,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7035,7 +7085,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7051,7 +7101,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7067,7 +7117,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7083,7 +7133,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7099,7 +7149,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7115,7 +7165,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7131,7 +7181,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7147,7 +7197,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7163,7 +7213,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7179,7 +7229,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7195,7 +7245,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7211,7 +7261,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7227,7 +7277,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7243,7 +7293,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7259,7 +7309,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7275,7 +7325,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7291,7 +7341,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7307,7 +7357,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7323,7 +7373,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7339,7 +7389,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7355,7 +7405,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7371,7 +7421,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7387,7 +7437,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7403,7 +7453,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7419,7 +7469,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7435,7 +7485,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7451,7 +7501,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7467,7 +7517,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7483,7 +7533,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7499,7 +7549,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7515,7 +7565,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7531,7 +7581,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7547,7 +7597,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7563,7 +7613,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7579,7 +7629,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7595,7 +7645,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7611,7 +7661,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7627,7 +7677,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7643,7 +7693,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7659,7 +7709,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7675,7 +7725,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7691,7 +7741,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7707,7 +7757,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7723,7 +7773,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7739,7 +7789,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7755,7 +7805,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7771,7 +7821,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7787,7 +7837,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7803,7 +7853,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7819,7 +7869,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7835,7 +7885,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7851,7 +7901,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7867,7 +7917,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7883,7 +7933,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7899,7 +7949,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7915,7 +7965,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7931,7 +7981,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7947,7 +7997,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7963,7 +8013,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7979,7 +8029,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7995,7 +8045,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8011,7 +8061,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8027,7 +8077,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8043,7 +8093,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8059,7 +8109,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8075,7 +8125,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8091,7 +8141,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8107,7 +8157,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8123,7 +8173,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8139,7 +8189,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8155,7 +8205,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8171,7 +8221,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41"/>
       <c r="B131" s="15"/>
       <c r="C131" s="42"/>
@@ -8202,10 +8252,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8228,7 +8278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8236,34 +8286,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="60" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8292,7 +8342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>9.5809999999999995</v>
       </c>
@@ -8320,17 +8370,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8344,14 +8394,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8378,7 +8428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8404,7 +8454,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8430,7 +8480,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8456,7 +8506,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8482,7 +8532,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8508,7 +8558,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8534,7 +8584,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8560,7 +8610,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8580,7 +8630,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8600,7 +8650,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8620,7 +8670,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8641,7 +8691,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8662,7 +8712,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8683,7 +8733,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8704,7 +8754,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8725,7 +8775,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8746,7 +8796,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8767,7 +8817,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8788,7 +8838,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8809,7 +8859,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8830,7 +8880,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8851,7 +8901,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8872,7 +8922,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8893,7 +8943,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8914,7 +8964,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8935,7 +8985,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8956,7 +9006,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8977,7 +9027,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8998,7 +9048,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9019,7 +9069,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9040,7 +9090,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9049,7 +9099,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9058,7 +9108,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9067,7 +9117,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9076,7 +9126,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9085,7 +9135,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9094,7 +9144,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9103,7 +9153,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9112,7 +9162,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9121,7 +9171,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9130,7 +9180,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9139,7 +9189,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9148,7 +9198,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9157,7 +9207,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9166,7 +9216,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9175,7 +9225,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9184,7 +9234,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9193,7 +9243,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9202,7 +9252,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9211,7 +9261,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9220,7 +9270,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9229,7 +9279,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9238,7 +9288,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9247,7 +9297,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9256,7 +9306,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9265,7 +9315,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9274,7 +9324,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9283,7 +9333,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9292,7 +9342,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9301,7 +9351,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/BAES, ELMER.xlsx
+++ b/NEW HR/DONE/BAES, ELMER.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF107C6-F4A7-4185-8B15-0F0C622C2D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="45" windowWidth="23010" windowHeight="12315" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -207,24 +208,6 @@
     <t>UT(0-1-5)</t>
   </si>
   <si>
-    <t>A(1-16-22)</t>
-  </si>
-  <si>
-    <t>VL(2-0-0)</t>
-  </si>
-  <si>
-    <t>4/16,22/2019</t>
-  </si>
-  <si>
-    <t>UT(0-1-32)</t>
-  </si>
-  <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
-    <t>UT(0-1-18)</t>
-  </si>
-  <si>
     <t>3/22,29/2019</t>
   </si>
   <si>
@@ -278,11 +261,26 @@
   <si>
     <t>9/18-20/2023</t>
   </si>
+  <si>
+    <t>10/10-11/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>11/28-30/2023,12/01/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -513,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -658,20 +656,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -685,11 +671,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1386,7 +1381,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1424,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1493,7 +1488,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1548,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1614,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1677,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1775,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1834,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1899,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1942,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2017,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2203,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2269,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2327,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,7 +2393,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2449,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2524,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2567,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2633,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2689,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2787,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,7 +2850,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,7 +2899,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2921,25 +2916,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2951,25 +2946,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2981,13 +2976,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2996,14 +2991,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3307,7 +3302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3317,7 +3312,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3325,97 +3320,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K138"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A77" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane ySplit="2976" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="54">
         <v>41519</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="52"/>
+      <c r="F4" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3423,7 +3418,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3436,24 +3431,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3488,7 +3483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3497,7 +3492,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>61.85</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3507,12 +3502,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>86.25</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3534,7 +3529,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3554,7 +3549,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3574,7 +3569,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3594,7 +3589,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3614,7 +3609,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3634,7 +3629,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3654,7 +3649,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3674,7 +3669,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3694,7 +3689,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3714,7 +3709,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3734,7 +3729,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3754,7 +3749,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3778,7 +3773,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3796,7 +3791,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3816,7 +3811,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3836,7 +3831,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3856,19 +3851,15 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="B27" s="20"/>
       <c r="C27" s="13">
         <v>1.25</v>
       </c>
-      <c r="D27" s="39">
-        <v>1.046</v>
-      </c>
+      <c r="D27" s="39"/>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
@@ -3880,61 +3871,55 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="39">
-        <v>2</v>
-      </c>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="40">
+        <v>43586</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="39"/>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="39">
-        <v>0.192</v>
-      </c>
+      <c r="K28" s="49"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="40">
+        <v>43617</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <v>43586</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>60</v>
-      </c>
+        <v>43647</v>
+      </c>
+      <c r="B30" s="20"/>
       <c r="C30" s="13">
         <v>1.25</v>
       </c>
-      <c r="D30" s="39">
-        <v>1</v>
-      </c>
+      <c r="D30" s="39"/>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
@@ -3944,33 +3929,31 @@
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="49">
-        <v>43609</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="39">
-        <v>0.16200000000000003</v>
-      </c>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="40">
+        <v>43678</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D31" s="39"/>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G31" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
@@ -3988,9 +3971,9 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13">
@@ -4008,9 +3991,9 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
-        <v>43678</v>
+        <v>43770</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -4028,15 +4011,19 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <v>43709</v>
-      </c>
-      <c r="B35" s="20"/>
+        <v>43800</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C35" s="13">
         <v>1.25</v>
       </c>
-      <c r="D35" s="39"/>
+      <c r="D35" s="39">
+        <v>5</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
@@ -4048,29 +4035,27 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="40">
-        <v>43739</v>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="48" t="s">
+        <v>44</v>
       </c>
       <c r="B36" s="20"/>
-      <c r="C36" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C36" s="13"/>
       <c r="D36" s="39"/>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G36" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <v>43770</v>
+        <v>43831</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
@@ -4088,9 +4073,9 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <v>43800</v>
+        <v>43862</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
@@ -4108,27 +4093,29 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
-        <v>44</v>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="40">
+        <v>43891</v>
       </c>
       <c r="B39" s="20"/>
-      <c r="C39" s="13"/>
+      <c r="C39" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D39" s="39"/>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G39" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
@@ -4146,9 +4133,9 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -4166,9 +4153,9 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
@@ -4186,9 +4173,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -4206,9 +4193,9 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>43952</v>
+        <v>44044</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -4226,9 +4213,9 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -4246,9 +4233,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -4266,9 +4253,9 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -4286,15 +4273,19 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>44075</v>
-      </c>
-      <c r="B48" s="20"/>
+        <v>44166</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
-      <c r="D48" s="39"/>
+      <c r="D48" s="39">
+        <v>5</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
@@ -4306,29 +4297,27 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="40">
-        <v>44105</v>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="B49" s="20"/>
-      <c r="C49" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C49" s="13"/>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G49" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>44136</v>
+        <v>44197</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
@@ -4346,19 +4335,15 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>50</v>
-      </c>
+        <v>44228</v>
+      </c>
+      <c r="B51" s="20"/>
       <c r="C51" s="13">
         <v>1.25</v>
       </c>
-      <c r="D51" s="39">
-        <v>5</v>
-      </c>
+      <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
       <c r="G51" s="13">
@@ -4370,27 +4355,29 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
-        <v>45</v>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="40">
+        <v>44256</v>
       </c>
       <c r="B52" s="20"/>
-      <c r="C52" s="13"/>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -4408,9 +4395,9 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>44228</v>
+        <v>44317</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -4428,9 +4415,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -4448,9 +4435,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -4468,9 +4455,9 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>44317</v>
+        <v>44409</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4488,9 +4475,9 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -4508,9 +4495,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
@@ -4528,11 +4515,13 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>44409</v>
-      </c>
-      <c r="B60" s="20"/>
+        <v>44501</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C60" s="13">
         <v>1.25</v>
       </c>
@@ -4546,17 +4535,23 @@
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>44440</v>
-      </c>
-      <c r="B61" s="20"/>
+        <v>44531</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C61" s="13">
         <v>1.25</v>
       </c>
-      <c r="D61" s="39"/>
+      <c r="D61" s="39">
+        <v>5</v>
+      </c>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
       <c r="G61" s="13">
@@ -4568,33 +4563,29 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40">
-        <v>44470</v>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="48" t="s">
+        <v>46</v>
       </c>
       <c r="B62" s="20"/>
-      <c r="C62" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C62" s="13"/>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G62" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>44501</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>65</v>
-      </c>
+        <v>44562</v>
+      </c>
+      <c r="B63" s="20"/>
       <c r="C63" s="13">
         <v>1.25</v>
       </c>
@@ -4608,23 +4599,17 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="20"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>44531</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>50</v>
-      </c>
+        <v>44593</v>
+      </c>
+      <c r="B64" s="20"/>
       <c r="C64" s="13">
         <v>1.25</v>
       </c>
-      <c r="D64" s="39">
-        <v>5</v>
-      </c>
+      <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
       <c r="G64" s="13">
@@ -4636,27 +4621,29 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="48" t="s">
-        <v>46</v>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="40">
+        <v>44621</v>
       </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -4674,9 +4661,9 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>44593</v>
+        <v>44682</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
@@ -4694,9 +4681,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -4714,9 +4701,9 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4734,9 +4721,9 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
@@ -4754,9 +4741,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4774,9 +4761,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
@@ -4794,9 +4781,9 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>44774</v>
+        <v>44866</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
@@ -4814,15 +4801,19 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B74" s="20"/>
+        <v>44896</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="39"/>
+      <c r="D74" s="39">
+        <v>4</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
@@ -4834,59 +4825,55 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D75" s="39"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="40"/>
+      <c r="B75" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="39">
+        <v>1</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40">
-        <v>44866</v>
+      <c r="K75" s="49">
+        <v>44924</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C76" s="13"/>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>67</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B77" s="20"/>
       <c r="C77" s="13">
         <v>1.25</v>
       </c>
-      <c r="D77" s="39">
-        <v>4</v>
-      </c>
+      <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13">
@@ -4898,49 +4885,49 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="39">
-        <v>1</v>
-      </c>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="49">
-        <v>44924</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="s">
-        <v>47</v>
+      <c r="K78" s="20"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <v>44986</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4958,9 +4945,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -4978,9 +4965,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>44986</v>
+        <v>45078</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -4998,9 +4985,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>45017</v>
+        <v>45108</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -5018,9 +5005,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>45047</v>
+        <v>45139</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -5038,9 +5025,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -5058,9 +5045,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -5078,11 +5065,13 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B87" s="20"/>
+        <v>45231</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C87" s="13">
         <v>1.25</v>
       </c>
@@ -5096,33 +5085,43 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D88" s="39"/>
+      <c r="K87" s="49">
+        <v>45243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40"/>
+      <c r="B88" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="39">
+        <v>4</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
-      <c r="B89" s="20"/>
+      <c r="K88" s="49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C89" s="13"/>
-      <c r="D89" s="39"/>
+      <c r="D89" s="39">
+        <v>1</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
       <c r="G89" s="13" t="str">
@@ -5132,10 +5131,14 @@
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="K89" s="49">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="48" t="s">
+        <v>77</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5150,8 +5153,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <v>45292</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5166,8 +5171,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <v>45323</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5182,8 +5189,10 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <v>45352</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5198,8 +5207,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>45383</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5214,8 +5225,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
+        <v>45413</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5230,8 +5243,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <v>45444</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5246,8 +5261,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
+        <v>45474</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5262,8 +5279,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <v>45505</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5278,8 +5297,10 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>45536</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5294,8 +5315,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
+        <v>45566</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5310,8 +5333,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
+        <v>45597</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5326,8 +5351,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
+        <v>45627</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5342,7 +5369,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5358,7 +5385,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5374,7 +5401,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5390,7 +5417,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5406,7 +5433,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5422,7 +5449,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5438,7 +5465,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5454,7 +5481,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5470,7 +5497,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5486,7 +5513,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5502,7 +5529,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5518,7 +5545,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5534,7 +5561,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5550,7 +5577,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5566,7 +5593,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5582,7 +5609,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5598,7 +5625,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5614,7 +5641,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5630,7 +5657,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5646,7 +5673,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5662,7 +5689,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5678,7 +5705,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5694,7 +5721,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5710,7 +5737,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5726,7 +5753,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5742,7 +5769,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5758,7 +5785,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5774,7 +5801,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5790,7 +5817,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5806,7 +5833,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5822,7 +5849,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5838,7 +5865,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5854,7 +5881,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5870,7 +5897,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5886,57 +5913,41 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="39"/>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="41"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="43"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="39"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="43"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="20"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="41"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="43"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="43"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="15"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5959,100 +5970,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A20" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A13"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>BAES, ELMER</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>EDP</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6060,7 +6071,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6073,24 +6084,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6125,7 +6136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6144,12 +6155,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.582999999999998</v>
+        <v>34.582999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -6171,7 +6182,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43466</v>
       </c>
@@ -6192,10 +6203,10 @@
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
       <c r="K11" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>52</v>
@@ -6215,7 +6226,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43497</v>
       </c>
@@ -6236,10 +6247,10 @@
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
       <c r="K13" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
@@ -6259,7 +6270,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43525</v>
       </c>
@@ -6280,10 +6291,10 @@
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
       <c r="K15" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>55</v>
@@ -6303,7 +6314,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>46</v>
       </c>
@@ -6321,7 +6332,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>44924</v>
       </c>
@@ -6339,7 +6350,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>47</v>
       </c>
@@ -6357,12 +6368,12 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="50">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
         <v>44986</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
@@ -6378,15 +6389,15 @@
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
       <c r="K20" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>45047</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
@@ -6402,13 +6413,13 @@
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
       <c r="K21" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
@@ -6424,13 +6435,13 @@
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
       <c r="K22" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
@@ -6449,10 +6460,10 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
@@ -6471,12 +6482,12 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>45078</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
@@ -6493,10 +6504,10 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
@@ -6512,15 +6523,15 @@
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
       <c r="K26" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>45099</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
@@ -6539,10 +6550,10 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
@@ -6558,15 +6569,15 @@
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
       <c r="K28" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>45139</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
@@ -6585,12 +6596,12 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>45170</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
@@ -6606,13 +6617,13 @@
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
@@ -6628,13 +6639,13 @@
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
       <c r="K31" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
@@ -6653,9 +6664,11 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
@@ -6664,12 +6677,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="39">
+        <v>2</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6685,7 +6702,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6701,7 +6718,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6717,7 +6734,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6733,7 +6750,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6749,7 +6766,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6765,7 +6782,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6781,7 +6798,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6797,7 +6814,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6813,7 +6830,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6829,7 +6846,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6845,7 +6862,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6861,7 +6878,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6877,7 +6894,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6893,7 +6910,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6909,7 +6926,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6925,7 +6942,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6941,7 +6958,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6957,7 +6974,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6973,7 +6990,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6989,7 +7006,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7005,7 +7022,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7021,7 +7038,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7037,7 +7054,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7053,7 +7070,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7069,7 +7086,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7085,7 +7102,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7101,7 +7118,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7117,7 +7134,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7133,7 +7150,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7149,7 +7166,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7165,7 +7182,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7181,7 +7198,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7197,7 +7214,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7213,7 +7230,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7229,7 +7246,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7245,7 +7262,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7261,7 +7278,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7277,7 +7294,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7293,7 +7310,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7309,7 +7326,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7325,7 +7342,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7341,7 +7358,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7357,7 +7374,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7373,7 +7390,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7389,7 +7406,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7405,7 +7422,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7421,7 +7438,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7437,7 +7454,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7453,7 +7470,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7469,7 +7486,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7485,7 +7502,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7501,7 +7518,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7517,7 +7534,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7533,7 +7550,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7549,7 +7566,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7565,7 +7582,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7581,7 +7598,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7597,7 +7614,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7613,7 +7630,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7629,7 +7646,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7645,7 +7662,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7661,7 +7678,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7677,7 +7694,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7693,7 +7710,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7709,7 +7726,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7725,7 +7742,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7741,7 +7758,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7757,7 +7774,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7773,7 +7790,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7789,7 +7806,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7805,7 +7822,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7821,7 +7838,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7837,7 +7854,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7853,7 +7870,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7869,7 +7886,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7885,7 +7902,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7901,7 +7918,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7917,7 +7934,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7933,7 +7950,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7949,7 +7966,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7965,7 +7982,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7981,7 +7998,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7997,7 +8014,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8013,7 +8030,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8029,7 +8046,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8045,7 +8062,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8061,7 +8078,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8077,7 +8094,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8093,7 +8110,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8109,7 +8126,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8125,7 +8142,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8141,7 +8158,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8157,7 +8174,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8173,7 +8190,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8189,7 +8206,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8205,7 +8222,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8221,7 +8238,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="41"/>
       <c r="B131" s="15"/>
       <c r="C131" s="42"/>
@@ -8252,10 +8269,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8278,7 +8295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8286,34 +8303,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8342,7 +8359,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>9.5809999999999995</v>
       </c>
@@ -8370,17 +8387,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8394,14 +8411,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8428,7 +8445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8454,7 +8471,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8480,7 +8497,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8506,7 +8523,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8532,7 +8549,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8558,7 +8575,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8584,7 +8601,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8610,7 +8627,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8630,7 +8647,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8650,7 +8667,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8670,7 +8687,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8691,7 +8708,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8712,7 +8729,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8733,7 +8750,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8754,7 +8771,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8775,7 +8792,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8796,7 +8813,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8817,7 +8834,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8838,7 +8855,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8859,7 +8876,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8880,7 +8897,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8901,7 +8918,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8922,7 +8939,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8943,7 +8960,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8964,7 +8981,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8985,7 +9002,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9006,7 +9023,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9027,7 +9044,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9048,7 +9065,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9069,7 +9086,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9090,7 +9107,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9099,7 +9116,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9108,7 +9125,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9117,7 +9134,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9126,7 +9143,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9135,7 +9152,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9144,7 +9161,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9153,7 +9170,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9162,7 +9179,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9171,7 +9188,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9180,7 +9197,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9189,7 +9206,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9198,7 +9215,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9207,7 +9224,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9216,7 +9233,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9225,7 +9242,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9234,7 +9251,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9243,7 +9260,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9252,7 +9269,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9261,7 +9278,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9270,7 +9287,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9279,7 +9296,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9288,7 +9305,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9297,7 +9314,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9306,7 +9323,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9315,7 +9332,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9324,7 +9341,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9333,7 +9350,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9342,7 +9359,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9351,7 +9368,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/BAES, ELMER.xlsx
+++ b/NEW HR/DONE/BAES, ELMER.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF107C6-F4A7-4185-8B15-0F0C622C2D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -276,11 +275,14 @@
   <si>
     <t>FL(1-0-0)</t>
   </si>
+  <si>
+    <t>12/27-29/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -659,6 +661,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -671,20 +682,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1381,7 +1383,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,7 +1426,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1488,7 +1490,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1550,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1616,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1679,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1777,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1836,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,7 +1901,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1944,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +2019,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2203,7 +2205,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2271,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2329,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2395,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2449,7 +2451,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2526,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2567,7 +2569,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2635,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +2691,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2789,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,7 +2852,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,7 +2901,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2916,25 +2918,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2946,25 +2948,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2976,13 +2978,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2991,14 +2993,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3302,7 +3304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3312,7 +3314,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3320,34 +3322,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane ySplit="2976" topLeftCell="A75" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3765" topLeftCell="A81" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3359,16 +3361,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3377,18 +3379,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="57">
         <v>41519</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3399,18 +3401,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3418,7 +3420,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3431,24 +3433,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3483,7 +3485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3492,7 +3494,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3502,12 +3504,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>88.75</v>
+        <v>90</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3529,7 +3531,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3549,7 +3551,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3569,7 +3571,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3589,7 +3591,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3609,7 +3611,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3629,7 +3631,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3649,7 +3651,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3669,7 +3671,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3689,7 +3691,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3709,7 +3711,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3729,7 +3731,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3749,7 +3751,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3773,7 +3775,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3791,7 +3793,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3811,7 +3813,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3831,7 +3833,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3851,7 +3853,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3871,7 +3873,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3891,7 +3893,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="49"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3911,7 +3913,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3931,7 +3933,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3951,7 +3953,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3971,7 +3973,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3991,7 +3993,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4011,7 +4013,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4035,7 +4037,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4053,7 +4055,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4073,7 +4075,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4093,7 +4095,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4113,7 +4115,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4133,7 +4135,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4153,7 +4155,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4173,7 +4175,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4193,7 +4195,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4213,7 +4215,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4233,7 +4235,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4253,7 +4255,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4273,7 +4275,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4297,7 +4299,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4315,7 +4317,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4335,7 +4337,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4355,7 +4357,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4375,7 +4377,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4395,7 +4397,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4415,7 +4417,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4435,7 +4437,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4455,7 +4457,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4475,7 +4477,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4495,7 +4497,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4515,7 +4517,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4539,7 +4541,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4563,7 +4565,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4581,7 +4583,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4601,7 +4603,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4621,7 +4623,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4641,7 +4643,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4661,7 +4663,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4681,7 +4683,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4701,7 +4703,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4721,7 +4723,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4741,7 +4743,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4761,7 +4763,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4781,7 +4783,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4801,7 +4803,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4825,7 +4827,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>62</v>
@@ -4847,7 +4849,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>47</v>
       </c>
@@ -4865,7 +4867,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44927</v>
       </c>
@@ -4885,7 +4887,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44958</v>
       </c>
@@ -4905,7 +4907,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44986</v>
       </c>
@@ -4925,7 +4927,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45017</v>
       </c>
@@ -4945,7 +4947,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45047</v>
       </c>
@@ -4965,7 +4967,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45078</v>
       </c>
@@ -4985,7 +4987,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45108</v>
       </c>
@@ -5005,7 +5007,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45139</v>
       </c>
@@ -5025,7 +5027,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45170</v>
       </c>
@@ -5045,7 +5047,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45200</v>
       </c>
@@ -5065,7 +5067,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45231</v>
       </c>
@@ -5089,7 +5091,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>61</v>
@@ -5111,22 +5113,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45261</v>
       </c>
       <c r="B89" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39">
         <v>1</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -5135,7 +5139,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>77</v>
       </c>
@@ -5153,7 +5157,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45292</v>
       </c>
@@ -5171,7 +5175,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45323</v>
       </c>
@@ -5189,7 +5193,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45352</v>
       </c>
@@ -5207,7 +5211,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45383</v>
       </c>
@@ -5225,7 +5229,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45413</v>
       </c>
@@ -5243,7 +5247,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45444</v>
       </c>
@@ -5261,7 +5265,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45474</v>
       </c>
@@ -5279,7 +5283,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45505</v>
       </c>
@@ -5297,7 +5301,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45536</v>
       </c>
@@ -5315,7 +5319,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45566</v>
       </c>
@@ -5333,7 +5337,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45597</v>
       </c>
@@ -5351,7 +5355,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45627</v>
       </c>
@@ -5369,7 +5373,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5385,7 +5389,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5401,7 +5405,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5417,7 +5421,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5433,7 +5437,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5449,7 +5453,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5465,7 +5469,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5481,7 +5485,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5497,7 +5501,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5513,7 +5517,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5529,7 +5533,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5545,7 +5549,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5561,7 +5565,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5577,7 +5581,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5593,7 +5597,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5609,7 +5613,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5625,7 +5629,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5641,7 +5645,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5657,7 +5661,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5673,7 +5677,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5689,7 +5693,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5705,7 +5709,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5721,7 +5725,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5737,7 +5741,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5753,7 +5757,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5769,7 +5773,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5785,7 +5789,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5801,7 +5805,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5817,7 +5821,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5833,7 +5837,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5849,7 +5853,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5865,7 +5869,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5881,7 +5885,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5897,7 +5901,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5913,7 +5917,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41"/>
       <c r="B137" s="15"/>
       <c r="C137" s="42"/>
@@ -5931,23 +5935,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5970,34 +5974,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6010,16 +6014,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6031,16 +6035,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6051,19 +6055,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>EDP</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6071,7 +6075,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6084,24 +6088,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6136,7 +6140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6155,12 +6159,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>34.582999999999998</v>
+        <v>31.582999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -6182,7 +6186,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43466</v>
       </c>
@@ -6206,7 +6210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>52</v>
@@ -6226,7 +6230,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43497</v>
       </c>
@@ -6250,7 +6254,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
@@ -6270,7 +6274,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43525</v>
       </c>
@@ -6294,7 +6298,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>55</v>
@@ -6314,7 +6318,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>46</v>
       </c>
@@ -6332,7 +6336,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44924</v>
       </c>
@@ -6350,7 +6354,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>47</v>
       </c>
@@ -6368,7 +6372,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>44986</v>
       </c>
@@ -6392,7 +6396,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>45047</v>
       </c>
@@ -6416,7 +6420,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>67</v>
@@ -6438,7 +6442,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>69</v>
@@ -6460,7 +6464,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>69</v>
@@ -6482,7 +6486,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>45078</v>
       </c>
@@ -6504,7 +6508,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>63</v>
@@ -6526,7 +6530,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>45099</v>
       </c>
@@ -6550,7 +6554,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>63</v>
@@ -6572,7 +6576,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>45139</v>
       </c>
@@ -6596,7 +6600,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>45170</v>
       </c>
@@ -6620,7 +6624,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>67</v>
@@ -6642,7 +6646,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>69</v>
@@ -6664,7 +6668,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>63</v>
@@ -6686,9 +6690,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="20"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
       <c r="E34" s="9"/>
@@ -6697,14 +6705,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H34" s="39"/>
+      <c r="H34" s="39">
+        <v>3</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
-      <c r="B35" s="20"/>
+      <c r="B35" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
       <c r="E35" s="9"/>
@@ -6716,9 +6730,11 @@
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K35" s="49">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6734,7 +6750,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6750,7 +6766,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6766,7 +6782,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6782,7 +6798,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6798,7 +6814,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6814,7 +6830,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6830,7 +6846,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6846,7 +6862,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6862,7 +6878,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6878,7 +6894,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6894,7 +6910,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6910,7 +6926,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6926,7 +6942,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6942,7 +6958,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6958,7 +6974,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6974,7 +6990,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6990,7 +7006,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -7006,7 +7022,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7022,7 +7038,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7038,7 +7054,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7054,7 +7070,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7070,7 +7086,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7086,7 +7102,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7102,7 +7118,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7118,7 +7134,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7134,7 +7150,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7150,7 +7166,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7166,7 +7182,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7182,7 +7198,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7198,7 +7214,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7214,7 +7230,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7230,7 +7246,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7246,7 +7262,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7262,7 +7278,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7278,7 +7294,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7294,7 +7310,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7310,7 +7326,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7326,7 +7342,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7342,7 +7358,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7358,7 +7374,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7374,7 +7390,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7390,7 +7406,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7406,7 +7422,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7422,7 +7438,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7438,7 +7454,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7454,7 +7470,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7470,7 +7486,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7486,7 +7502,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7502,7 +7518,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7518,7 +7534,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7534,7 +7550,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7550,7 +7566,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7566,7 +7582,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7582,7 +7598,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7598,7 +7614,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7614,7 +7630,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7630,7 +7646,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7646,7 +7662,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7662,7 +7678,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7678,7 +7694,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7694,7 +7710,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7710,7 +7726,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7726,7 +7742,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7742,7 +7758,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7758,7 +7774,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7774,7 +7790,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7790,7 +7806,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7806,7 +7822,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7822,7 +7838,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7838,7 +7854,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7854,7 +7870,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7870,7 +7886,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7886,7 +7902,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7902,7 +7918,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7918,7 +7934,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7934,7 +7950,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7950,7 +7966,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7966,7 +7982,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7982,7 +7998,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7998,7 +8014,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8014,7 +8030,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8030,7 +8046,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8046,7 +8062,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8062,7 +8078,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8078,7 +8094,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8094,7 +8110,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8110,7 +8126,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8126,7 +8142,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8142,7 +8158,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8158,7 +8174,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8174,7 +8190,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8190,7 +8206,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8206,7 +8222,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8222,7 +8238,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8238,7 +8254,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41"/>
       <c r="B131" s="15"/>
       <c r="C131" s="42"/>
@@ -8269,10 +8285,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8295,7 +8311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8303,21 +8319,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8330,7 +8346,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8359,7 +8375,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>9.5809999999999995</v>
       </c>
@@ -8387,17 +8403,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8418,7 +8434,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8445,7 +8461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8471,7 +8487,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8497,7 +8513,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8523,7 +8539,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8549,7 +8565,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8575,7 +8591,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8601,7 +8617,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8627,7 +8643,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8647,7 +8663,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8667,7 +8683,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8687,7 +8703,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8708,7 +8724,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8729,7 +8745,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8750,7 +8766,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8771,7 +8787,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8792,7 +8808,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8813,7 +8829,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8834,7 +8850,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8855,7 +8871,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8876,7 +8892,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8897,7 +8913,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8918,7 +8934,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8939,7 +8955,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8960,7 +8976,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8981,7 +8997,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9002,7 +9018,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9023,7 +9039,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9044,7 +9060,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9065,7 +9081,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9086,7 +9102,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9107,7 +9123,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9116,7 +9132,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9125,7 +9141,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9134,7 +9150,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9143,7 +9159,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9152,7 +9168,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9161,7 +9177,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9170,7 +9186,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9179,7 +9195,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9188,7 +9204,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9197,7 +9213,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9206,7 +9222,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9215,7 +9231,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9224,7 +9240,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9233,7 +9249,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9242,7 +9258,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9251,7 +9267,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9260,7 +9276,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9269,7 +9285,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9278,7 +9294,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9287,7 +9303,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9296,7 +9312,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9305,7 +9321,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9314,7 +9330,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9323,7 +9339,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9332,7 +9348,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9341,7 +9357,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9350,7 +9366,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9359,7 +9375,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9368,7 +9384,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/BAES, ELMER.xlsx
+++ b/NEW HR/DONE/BAES, ELMER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -661,15 +661,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -682,11 +673,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1383,7 +1383,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,7 +1426,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1490,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1550,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1616,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1679,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1777,7 +1777,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +1836,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1901,7 +1901,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1944,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2019,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2205,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2271,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2329,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2395,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,7 +2451,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2526,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2569,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,7 +2635,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2691,7 +2691,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2789,7 +2789,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2852,7 +2852,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3328,10 +3328,10 @@
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3765" topLeftCell="A81" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3765" topLeftCell="A84" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3361,14 +3361,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3379,16 +3379,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <v>41519</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3401,16 +3401,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3436,18 +3436,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3504,7 +3504,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5161,7 +5161,9 @@
       <c r="A91" s="40">
         <v>45292</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
@@ -5170,10 +5172,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="39"/>
+      <c r="H91" s="39">
+        <v>1</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="49">
+        <v>45305</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
@@ -5935,17 +5941,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5980,7 +5986,7 @@
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
@@ -6014,14 +6020,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6035,14 +6041,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6055,17 +6061,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>EDP</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6091,18 +6097,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/DONE/BAES, ELMER.xlsx
+++ b/NEW HR/DONE/BAES, ELMER.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -661,6 +661,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -673,20 +682,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1383,7 +1383,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,7 +1426,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1490,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1550,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1616,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1679,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1777,7 +1777,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +1836,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1901,7 +1901,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1944,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2019,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2205,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2271,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,7 +2329,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2395,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,7 +2451,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2526,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2569,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,7 +2635,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2691,7 +2691,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2789,7 +2789,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2852,7 +2852,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2918,7 +2918,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3326,12 +3326,12 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K137"/>
+  <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3765" topLeftCell="A84" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
+      <selection pane="bottomLeft" activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3361,14 +3361,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3379,16 +3379,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="57">
         <v>41519</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3401,16 +3401,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3436,18 +3436,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5182,10 +5182,10 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B92" s="20"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
@@ -5197,11 +5197,13 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="49">
+        <v>45320</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5219,7 +5221,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5237,7 +5239,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5255,7 +5257,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5273,7 +5275,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5291,7 +5293,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5309,7 +5311,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5327,7 +5329,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5345,7 +5347,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5363,7 +5365,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5380,7 +5382,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45627</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5924,34 +5928,50 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="41"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="43"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="43"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="15"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="41"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="43"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6020,14 +6040,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6041,14 +6061,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6061,17 +6081,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>EDP</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6097,18 +6117,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
